--- a/Dataset/Folds/Fold_3/Excel/78.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/78.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4182" uniqueCount="632">
   <si>
     <t>Doi</t>
   </si>
@@ -1934,6 +1934,226 @@
   </si>
   <si>
     <t>[Gemin%Zhang%NULL%0,                            Jie%Zhang%945128911@qq.com%0,                            Bowen%Wang%NULL%0,                            Xionglin%Zhu%NULL%0,                            Qiang%Wang%NULL%0,                            Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                             Wenhua%Liang%NULL%0,                             Mei%Jiang%NULL%0,                             Weijie%Guan%NULL%0,                             Chen%Zhan%NULL%2,                             Tao%Wang%NULL%0,                             Chunli%Tang%NULL%2,                             Ling%Sang%NULL%0,                             Jiaxing%Liu%NULL%2,                             Zhengyi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chunliang%Lei%NULL%0,                             Yixiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Yahua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jianming%Wang%NULL%0,                             Jiyang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhijian%Zheng%NULL%0,                             Shaoqin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Changjiang%Ye%NULL%0,                             Shaoyong%Zhu%NULL%0,                             Xiaoqing%Liu%NULL%0,                             Linling%Cheng%NULL%2,                             Feng%Ye%NULL%0,                             Jinping%Zheng%NULL%0,                             Nuofu%Zhang%NULL%0,                             Yimin%Li%NULL%0,                             Jianxing%He%NULL%0,                             Shiyue%Li%lishiyue@188.com%0,                             Nanshan%Zhong%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                             B.%Zhang%NULL%1,                             H.%Huang%NULL%1,                             Y.%Luo%NULL%1,                             S.%Wu%NULL%1,                             G.%Tang%NULL%1,                             W.%Liu%NULL%1,                             L.%Mao%NULL%2,                             L.%Mao%NULL%0,                             F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                             Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                             Lin%Li%NULL%0,                             MengDa%Xu%NULL%1,                             Juan%Wu%NULL%1,                             Ding%Luo%NULL%1,                             YuSi%Zhu%NULL%1,                             BiXi%Li%NULL%1,                             XiaoYang%Song%NULL%1,                             Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                             Ping%Xu%xuping1027@163.com%1,                             Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                             Xiao-Hui%Qiu%NULL%1,                             Jin-Long%Yao%NULL%1,                             Jin-Feng%Gu%NULL%1,                             Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                             Qi%Zhang%NULL%1,                             Chao%Huang%NULL%1,                             Chunzi%Shi%NULL%1,                             Lin%Wang%NULL%0,                             Nannan%Shi%NULL%1,                             Cong%Fang%NULL%1,                             Fei%Shan%NULL%1,                             Xue%Mei%NULL%1,                             Jing%Shi%NULL%1,                             Fengxiang%Song%NULL%1,                             Zhongcheng%Yang%NULL%1,                             Zezhen%Ding%NULL%1,                             Xiaoming%Su%NULL%1,                             Hongzhou%Lu%NULL%0,                             Tongyu%Zhu%NULL%0,                             Zhiyong%Zhang%NULL%1,                             Lei%Shi%NULL%1,                             Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                             Mi%Mu%NULL%0,                             Pengcheng%Yang%NULL%0,                             Yu%Sun%NULL%1,                             Runsheng%Wang%NULL%0,                             Junhong%Yan%NULL%1,                             Pibao%Li%NULL%1,                             Baoguang%Hu%NULL%1,                             Jing%Wang%NULL%0,                             Chao%Hu%NULL%0,                             Yuan%Jin%NULL%1,                             Xun%Niu%NULL%1,                             Rongyu%Ping%NULL%0,                             Yingzhen%Du%NULL%1,                             Tianzhi%Li%NULL%0,                             Guogang%Xu%NULL%0,                             Qinyong%Hu%NULL%0,                             Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                             Ruoqi%Ning%NULL%0,                             Yu%Tao%NULL%0,                             Chong%Yu%NULL%0,                             Xiaoyan%Deng%NULL%0,                             Caili%Zhao%NULL%0,                             Silu%Meng%NULL%0,                             Fangxu%Tang%89650793@qq.com%0,                             Dong%Xu%89650793@qq.com%0,                             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                             Nan%Hu%NULL%1,                             Jing%Lou%NULL%1,                             Kun%Chen%NULL%1,                             Xuqin%Kang%NULL%1,                             Zhenjun%Xiang%NULL%1,                             Hui%Chen%NULL%0,                             Dali%Wang%NULL%1,                             Ning%Liu%NULL%1,                             Dong%Liu%NULL%1,                             Gang%Chen%NULL%1,                             Yongliang%Zhang%NULL%1,                             Dou%Li%NULL%1,                             Jianren%Li%NULL%1,                             Huixin%Lian%NULL%1,                             Shengmei%Niu%NULL%1,                             Luxi%Zhang%NULL%1,                             Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                             Owen Tak-Yin%Tsang%NULL%1,                             Wai-Shing%Leung%NULL%1,                             Anthony Raymond%Tam%NULL%1,                             Tak-Chiu%Wu%NULL%1,                             David Christopher%Lung%NULL%1,                             Cyril Chik-Yan%Yip%NULL%0,                             Jian-Piao%Cai%NULL%0,                             Jacky Man-Chun%Chan%NULL%1,                             Thomas Shiu-Hong%Chik%NULL%1,                             Daphne Pui-Ling%Lau%NULL%1,                             Chris Yau-Chung%Choi%NULL%1,                             Lin-Lei%Chen%NULL%1,                             Wan-Mui%Chan%NULL%0,                             Kwok-Hung%Chan%NULL%0,                             Jonathan Daniel%Ip%NULL%0,                             Anthony Chin-Ki%Ng%NULL%1,                             Rosana Wing-Shan%Poon%NULL%0,                             Cui-Ting%Luo%NULL%1,                             Vincent Chi-Chung%Cheng%NULL%0,                             Jasper Fuk-Woo%Chan%NULL%1,                             Ivan Fan-Ngai%Hung%NULL%1,                             Zhiwei%Chen%NULL%1,                             Honglin%Chen%NULL%0,                             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                             Qingjie%Yi%NULL%1,                             Shibing%Fan%NULL%1,                             Jinglong%Lv%13608388377@163.com%0,                             Xianxiang%Zhang%NULL%2,                             Xianxiang%Zhang%NULL%0,                             Lian%Guo%NULL%1,                             Chunhui%Lang%NULL%0,                             Qing%Xiao%NULL%1,                             Kaihu%Xiao%NULL%2,                             Zhengjun%Yi%NULL%1,                             Mao%Qiang%NULL%1,                             Jianglin%Xiang%NULL%1,                             Bangshuo%Zhang%NULL%1,                             Yongping%Chen%NULL%1,                             Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                             Wenbo%He%NULL%0,                             Xiaomei%Yu%NULL%0,                             Dalong%Hu%NULL%0,                             Mingwei%Bao%NULL%0,                             Huafen%Liu%NULL%0,                             Jiali%Zhou%NULL%0,                             Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                             Jing-Hui%Dong%NULL%1,                             Wei-Min%An%NULL%1,                             Xiao-Yan%Lv%15001008285@139.com%1,                             Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                             Jian-Zeng%Zhang%NULL%1,                             Li%Dong%NULL%1,                             Xi%Ma%NULL%1,                             Hong-Jie%Zhang%NULL%1,                             Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                             Chan%Dai%NULL%2,                             Chan%Dai%NULL%0,                             Pengcheng%Cai%NULL%1,                             Jinbiao%Wang%NULL%1,                             Lei%Xu%NULL%1,                             Jianyu%Li%NULL%1,                             Guoyun%Hu%NULL%1,                             Zheng%Wang%zhengwang@hust.edu.cn%1,                             Fang%Zheng%zhengfangtj@hust.edu.cn%1,                             Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                             Jie%Zhang%945128911@qq.com%2,                             Bowen%Wang%NULL%2,                             Xionglin%Zhu%NULL%2,                             Qiang%Wang%NULL%0,                             Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                             Jie%Zhang%945128911@qq.com%0,                             Bowen%Wang%NULL%0,                             Xionglin%Zhu%NULL%0,                             Qiang%Wang%NULL%0,                             Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                              Di%Wu%NULL%0,                              Huilong%Chen%NULL%0,                              Weiming%Yan%NULL%0,                              Danlei%Yang%NULL%0,                              Guang%Chen%NULL%0,                              Ke%Ma%NULL%0,                              Dong%Xu%NULL%0,                              Haijing%Yu%NULL%0,                              Hongwu%Wang%NULL%0,                              Tao%Wang%NULL%0,                              Wei%Guo%NULL%0,                              Jia%Chen%NULL%0,                              Chen%Ding%NULL%0,                              Xiaoping%Zhang%NULL%0,                              Jiaquan%Huang%NULL%0,                              Meifang%Han%NULL%0,                              Shusheng%Li%NULL%0,                              Xiaoping%Luo%NULL%0,                              Jianping%Zhao%NULL%0,                              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                              Wenhua%Liang%NULL%0,                              Mei%Jiang%NULL%0,                              Weijie%Guan%NULL%0,                              Chen%Zhan%NULL%2,                              Tao%Wang%NULL%0,                              Chunli%Tang%NULL%2,                              Ling%Sang%NULL%0,                              Jiaxing%Liu%NULL%2,                              Zhengyi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chunliang%Lei%NULL%0,                              Yixiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Yahua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jianming%Wang%NULL%0,                              Jiyang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhijian%Zheng%NULL%0,                              Shaoqin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Changjiang%Ye%NULL%0,                              Shaoyong%Zhu%NULL%0,                              Xiaoqing%Liu%NULL%0,                              Linling%Cheng%NULL%2,                              Feng%Ye%NULL%0,                              Jinping%Zheng%NULL%0,                              Nuofu%Zhang%NULL%0,                              Yimin%Li%NULL%0,                              Jianxing%He%NULL%0,                              Shiyue%Li%lishiyue@188.com%0,                              Nanshan%Zhong%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%1,                              B.%Zhang%NULL%1,                              H.%Huang%NULL%1,                              Y.%Luo%NULL%1,                              S.%Wu%NULL%1,                              G.%Tang%NULL%1,                              W.%Liu%NULL%1,                              L.%Mao%NULL%2,                              L.%Mao%NULL%0,                              F.%Wang%fengwang@tjh.tjmu.edu.cn%1,                              Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%1,                              Lin%Li%NULL%0,                              MengDa%Xu%NULL%1,                              Juan%Wu%NULL%1,                              Ding%Luo%NULL%1,                              YuSi%Zhu%NULL%1,                              BiXi%Li%NULL%1,                              XiaoYang%Song%NULL%1,                              Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%1,                              Ping%Xu%xuping1027@163.com%1,                              Wei-Fu%Lv%weifulv@ustc.edu.cn%1,                              Xiao-Hui%Qiu%NULL%1,                              Jin-Long%Yao%NULL%1,                              Jin-Feng%Gu%NULL%1,                              Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%1,                              Qi%Zhang%NULL%1,                              Chao%Huang%NULL%1,                              Chunzi%Shi%NULL%1,                              Lin%Wang%NULL%0,                              Nannan%Shi%NULL%1,                              Cong%Fang%NULL%1,                              Fei%Shan%NULL%1,                              Xue%Mei%NULL%1,                              Jing%Shi%NULL%1,                              Fengxiang%Song%NULL%1,                              Zhongcheng%Yang%NULL%1,                              Zezhen%Ding%NULL%1,                              Xiaoming%Su%NULL%1,                              Hongzhou%Lu%NULL%0,                              Tongyu%Zhu%NULL%0,                              Zhiyong%Zhang%NULL%1,                              Lei%Shi%NULL%1,                              Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%1,                              Mi%Mu%NULL%0,                              Pengcheng%Yang%NULL%0,                              Yu%Sun%NULL%1,                              Runsheng%Wang%NULL%0,                              Junhong%Yan%NULL%1,                              Pibao%Li%NULL%1,                              Baoguang%Hu%NULL%1,                              Jing%Wang%NULL%0,                              Chao%Hu%NULL%0,                              Yuan%Jin%NULL%1,                              Xun%Niu%NULL%1,                              Rongyu%Ping%NULL%0,                              Yingzhen%Du%NULL%1,                              Tianzhi%Li%NULL%0,                              Guogang%Xu%NULL%0,                              Qinyong%Hu%NULL%0,                              Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                              Ruoqi%Ning%NULL%0,                              Yu%Tao%NULL%0,                              Chong%Yu%NULL%0,                              Xiaoyan%Deng%NULL%0,                              Caili%Zhao%NULL%0,                              Silu%Meng%NULL%0,                              Fangxu%Tang%89650793@qq.com%0,                              Dong%Xu%89650793@qq.com%0,                              Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0,                              Nan%Hu%NULL%1,                              Jing%Lou%NULL%1,                              Kun%Chen%NULL%1,                              Xuqin%Kang%NULL%1,                              Zhenjun%Xiang%NULL%1,                              Hui%Chen%NULL%0,                              Dali%Wang%NULL%1,                              Ning%Liu%NULL%1,                              Dong%Liu%NULL%1,                              Gang%Chen%NULL%1,                              Yongliang%Zhang%NULL%1,                              Dou%Li%NULL%1,                              Jianren%Li%NULL%1,                              Huixin%Lian%NULL%1,                              Shengmei%Niu%NULL%1,                              Luxi%Zhang%NULL%1,                              Jinjun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0,                              Owen Tak-Yin%Tsang%NULL%1,                              Wai-Shing%Leung%NULL%1,                              Anthony Raymond%Tam%NULL%1,                              Tak-Chiu%Wu%NULL%1,                              David Christopher%Lung%NULL%1,                              Cyril Chik-Yan%Yip%NULL%0,                              Jian-Piao%Cai%NULL%0,                              Jacky Man-Chun%Chan%NULL%1,                              Thomas Shiu-Hong%Chik%NULL%1,                              Daphne Pui-Ling%Lau%NULL%1,                              Chris Yau-Chung%Choi%NULL%1,                              Lin-Lei%Chen%NULL%1,                              Wan-Mui%Chan%NULL%0,                              Kwok-Hung%Chan%NULL%0,                              Jonathan Daniel%Ip%NULL%0,                              Anthony Chin-Ki%Ng%NULL%1,                              Rosana Wing-Shan%Poon%NULL%0,                              Cui-Ting%Luo%NULL%1,                              Vincent Chi-Chung%Cheng%NULL%0,                              Jasper Fuk-Woo%Chan%NULL%1,                              Ivan Fan-Ngai%Hung%NULL%1,                              Zhiwei%Chen%NULL%1,                              Honglin%Chen%NULL%0,                              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                              Qingjie%Yi%NULL%1,                              Shibing%Fan%NULL%1,                              Jinglong%Lv%13608388377@163.com%0,                              Xianxiang%Zhang%NULL%2,                              Xianxiang%Zhang%NULL%0,                              Lian%Guo%NULL%1,                              Chunhui%Lang%NULL%0,                              Qing%Xiao%NULL%1,                              Kaihu%Xiao%NULL%2,                              Zhengjun%Yi%NULL%1,                              Mao%Qiang%NULL%1,                              Jianglin%Xiang%NULL%1,                              Bangshuo%Zhang%NULL%1,                              Yongping%Chen%NULL%1,                              Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                              Wenbo%He%NULL%0,                              Xiaomei%Yu%NULL%0,                              Dalong%Hu%NULL%0,                              Mingwei%Bao%NULL%0,                              Huafen%Liu%NULL%0,                              Jiali%Zhou%NULL%0,                              Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0,                              Jing-Hui%Dong%NULL%1,                              Wei-Min%An%NULL%1,                              Xiao-Yan%Lv%15001008285@139.com%1,                              Xiao-Ping%Yin%yinxiaoping78@sina.com%1,                              Jian-Zeng%Zhang%NULL%1,                              Li%Dong%NULL%1,                              Xi%Ma%NULL%1,                              Hong-Jie%Zhang%NULL%1,                              Bu-Lang%Gao%browngao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%1,                              Chan%Dai%NULL%2,                              Chan%Dai%NULL%0,                              Pengcheng%Cai%NULL%1,                              Jinbiao%Wang%NULL%1,                              Lei%Xu%NULL%1,                              Jianyu%Li%NULL%1,                              Guoyun%Hu%NULL%1,                              Zheng%Wang%zhengwang@hust.edu.cn%1,                              Fang%Zheng%zhengfangtj@hust.edu.cn%1,                              Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                              Jie%Zhang%945128911@qq.com%2,                              Bowen%Wang%NULL%2,                              Xionglin%Zhu%NULL%2,                              Qiang%Wang%NULL%0,                              Shiming%Qiu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0,                              Jie%Zhang%945128911@qq.com%0,                              Bowen%Wang%NULL%0,                              Xionglin%Zhu%NULL%0,                              Qiang%Wang%NULL%0,                              Shiming%Qiu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0, Wenhua%Liang%NULL%0, Mei%Jiang%NULL%0, Weijie%Guan%NULL%0, Chen%Zhan%NULL%0, Tao%Wang%NULL%0, Chunli%Tang%NULL%0, Ling%Sang%NULL%0, Jiaxing%Liu%NULL%0, Zhengyi%Ni%NULL%0, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chunliang%Lei%NULL%0, Yixiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Yahua%Hu%NULL%0, Peng%Peng%NULL%0, Jianming%Wang%NULL%0, Jiyang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhijian%Zheng%NULL%0, Shaoqin%Qiu%NULL%0, Jie%Luo%NULL%0, Changjiang%Ye%NULL%0, Shaoyong%Zhu%NULL%0, Xiaoqing%Liu%NULL%0, Linling%Cheng%NULL%0, Feng%Ye%NULL%0, Jinping%Zheng%NULL%0, Nuofu%Zhang%NULL%0, Yimin%Li%NULL%0, Jianxing%He%NULL%0, Shiyue%Li%lishiyue@188.com%0, Nanshan%Zhong%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective laboratory markers for the estimation of disease severity and predicting the clinical progression of coronavirus disease‐2019 (COVID‐19) is urgently needed.
+ Laboratory tests, including blood routine, cytokine profiles and infection markers, were collected from 389 confirmed COVID‐19 patients.
+ The included patients were classified into mild (n = 168), severe (n = 169) and critical groups (n = 52).
+ The leukocytes, neutrophils, infection biomarkers [such as C‐reactive protein (CRP), procalcitonin (PCT) and ferritin] and the concentrations of cytokines [interleukin (IL)‐2R, IL‐6, IL‐8, IL‐10 and tumor necrosis factor (TNF)‐α] were significantly increased, while lymphocytes were significantly decreased with increased severity of illness.
+ The amount of IL‐2R was positively correlated with the other cytokines and negatively correlated with lymphocyte number.
+ The ratio of IL‐2R to lymphocytes was found to be remarkably increased in severe and critical patients.
+ IL‐2R/lymphocytes were superior compared with other markers for the identification of COVID‐19 with critical illness, not only from mild but also from severe illness.
+ Moreover, the cytokine profiles and IL‐2R/lymphocytes were significantly decreased in recovered patients, but further increased in disease‐deteriorated patients, which might be correlated with the outcome of COVID‐19. Lymphopenia and increased levels of cytokines were closely associated with disease severity.
+ The IL‐2R/lymphocyte was a prominent biomarker for early identification of severe COVID‐19 and predicting the clinical progression of the disease.
+</t>
+  </si>
+  <si>
+    <t>[H.%Hou%NULL%0, B.%Zhang%NULL%1, H.%Huang%NULL%1, Y.%Luo%NULL%1, S.%Wu%NULL%1, G.%Tang%NULL%1, W.%Liu%NULL%1, L.%Mao%NULL%2, L.%Mao%NULL%0, F.%Wang%fengwang@tjh.tjmu.edu.cn%0, Z.%Sun%zysun@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Fang%Liu%NULL%0, Lin%Li%NULL%0, MengDa%Xu%NULL%1, Juan%Wu%NULL%0, Ding%Luo%NULL%1, YuSi%Zhu%NULL%1, BiXi%Li%NULL%1, XiaoYang%Song%NULL%1, Xiang%Zhou%zhouxiang188483@126.com%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Kai-Cai%Liu%NULL%0, Ping%Xu%xuping1027@163.com%1, Wei-Fu%Lv%weifulv@ustc.edu.cn%1, Xiao-Hui%Qiu%NULL%1, Jin-Long%Yao%NULL%1, Jin-Feng%Gu%NULL%1, Wei%Wei%NULL%2]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: Some patients with coronavirus disease 2019 (COVID-19) rapidly develop respiratory failure or even die, underscoring the need for early identification of patients at elevated risk of severe illness.
+ This study aims to quantify pneumonia lesions by computed tomography (CT) in the early days to predict progression to severe illness in a cohort of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Fengjun%Liu%NULL%0, Qi%Zhang%NULL%2, Chao%Huang%NULL%1, Chunzi%Shi%NULL%1, Lin%Wang%NULL%0, Nannan%Shi%NULL%0, Cong%Fang%NULL%1, Fei%Shan%NULL%0, Xue%Mei%NULL%1, Jing%Shi%NULL%0, Fengxiang%Song%NULL%0, Zhongcheng%Yang%NULL%1, Zezhen%Ding%NULL%1, Xiaoming%Su%NULL%1, Hongzhou%Lu%NULL%0, Tongyu%Zhu%NULL%0, Zhiyong%Zhang%NULL%0, Lei%Shi%NULL%0, Yuxin%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>Ivyspring International Publisher</t>
+  </si>
+  <si>
+    <t>[Lei%Pan%NULL%0, Mi%Mu%NULL%0, Pengcheng%Yang%NULL%0, Yu%Sun%NULL%1, Runsheng%Wang%NULL%0, Junhong%Yan%NULL%1, Pibao%Li%NULL%1, Baoguang%Hu%NULL%1, Jing%Wang%NULL%0, Chao%Hu%NULL%0, Yuan%Jin%NULL%1, Xun%Niu%NULL%1, Rongyu%Ping%NULL%0, Yingzhen%Du%NULL%0, Tianzhi%Li%NULL%0, Guogang%Xu%NULL%0, Qinyong%Hu%NULL%0, Lei%Tu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0, Ruoqi%Ning%NULL%0, Yu%Tao%NULL%0, Chong%Yu%NULL%0, Xiaoyan%Deng%NULL%0, Caili%Zhao%NULL%0, Silu%Meng%NULL%0, Fangxu%Tang%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0, Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Sijia%Tian%NULL%0, Nan%Hu%NULL%0, Jing%Lou%NULL%0, Kun%Chen%NULL%0, Xuqin%Kang%NULL%0, Zhenjun%Xiang%NULL%0, Hui%Chen%NULL%0, Dali%Wang%NULL%0, Ning%Liu%NULL%0, Dong%Liu%NULL%0, Gang%Chen%NULL%0, Yongliang%Zhang%NULL%0, Dou%Li%NULL%0, Jianren%Li%NULL%0, Huixin%Lian%NULL%0, Shengmei%Niu%NULL%0, Luxi%Zhang%NULL%0, Jinjun%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Kelvin Kai-Wang%To%NULL%0, Owen Tak-Yin%Tsang%NULL%0, Wai-Shing%Leung%NULL%0, Anthony Raymond%Tam%NULL%0, Tak-Chiu%Wu%NULL%0, David Christopher%Lung%NULL%0, Cyril Chik-Yan%Yip%NULL%0, Jian-Piao%Cai%NULL%0, Jacky Man-Chun%Chan%NULL%0, Thomas Shiu-Hong%Chik%NULL%0, Daphne Pui-Ling%Lau%NULL%0, Chris Yau-Chung%Choi%NULL%0, Lin-Lei%Chen%NULL%0, Wan-Mui%Chan%NULL%0, Kwok-Hung%Chan%NULL%0, Jonathan Daniel%Ip%NULL%0, Anthony Chin-Ki%Ng%NULL%0, Rosana Wing-Shan%Poon%NULL%0, Cui-Ting%Luo%NULL%0, Vincent Chi-Chung%Cheng%NULL%0, Jasper Fuk-Woo%Chan%NULL%0, Ivan Fan-Ngai%Hung%NULL%0, Zhiwei%Chen%NULL%0, Honglin%Chen%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>We explored the relationships between lymphocyte subsets, cytokines, pulmonary inflammation index (PII) and disease evolution in patients with (corona virus disease 2019) COVID‐19. A total of 123 patients with COVID‐19 were divided into mild and severe groups.
+ Lymphocyte subsets and cytokines were detected on the first day of hospital admission and lung computed tomography results were quantified by PII.
+ Difference analysis and correlation analysis were performed on the two groups.
+ A total of 102 mild and 21 severe patients were included in the analysis.
+ There were significant differences in cluster of differentiation 4 (CD4+ T), cluster of differentiation 8 (CD8+ T), interleukin 6 (IL‐6), interleukin 10 (IL‐10) and PII between the two groups.
+ There were significant positive correlations between CD4+ T and CD8+ T, IL‐6 and IL‐10 in the mild group (r
+2 = 0·694, r
+ 2 = 0·633, respectively; P &amp;lt; 0·01).
+ After ‘five‐in‐one’ treatment, all patients were discharged with the exception of the four who died.
+ Higher survival rates occurred in the mild group and in those with IL‐6 within normal values.
+ CD4+ T, CD8+ T, IL‐6, IL‐10 and PII can be used as indicators of disease evolution, and the PII can be used as an independent indicator for disease progression of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Qingjie%Yi%NULL%1, Shibing%Fan%NULL%1, Jinglong%Lv%13608388377@163.com%0, Xianxiang%Zhang%NULL%2, Xianxiang%Zhang%NULL%0, Lian%Guo%NULL%1, Chunhui%Lang%NULL%0, Qing%Xiao%NULL%1, Kaihu%Xiao%NULL%2, Zhengjun%Yi%NULL%1, Mao%Qiang%NULL%1, Jianglin%Xiang%NULL%1, Bangshuo%Zhang%NULL%1, Yongping%Chen%NULL%1, Cailiang%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 in the elderly patients was severe and highly fatal.
+</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0, Wenbo%He%NULL%0, Xiaomei%Yu%NULL%0, Dalong%Hu%NULL%0, Mingwei%Bao%NULL%0, Huafen%Liu%NULL%0, Jiali%Zhou%NULL%0, Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yu-Huan%Xu%NULL%0, Jing-Hui%Dong%NULL%0, Wei-Min%An%NULL%0, Xiao-Yan%Lv%15001008285@139.com%0, Xiao-Ping%Yin%yinxiaoping78@sina.com%0, Jian-Zeng%Zhang%NULL%0, Li%Dong%NULL%0, Xi%Ma%NULL%0, Hong-Jie%Zhang%NULL%0, Bu-Lang%Gao%browngao@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emergence of severe acute respiratory syndrome coronavirus 2 (SARS‐CoV‐2) in China at the end of 2019 has spread throughout the world and caused many thousands of deaths.
+ The previous study reported a higher severe status rate and mortality rate in male patients in China.
+ However, the reason underlying this difference has not been reported.
+ The convalescent plasma containing a high level of SARS‐CoV‐2 immunoglobulin G (IgG) antibody has been used in clinical therapy and achieved good effects in China.
+ In this study, to compare the differences of the SARS‐CoV‐2 IgG antibody between male and female patients, a total number of 331 patients confirmed SARS‐CoV‐2 infection were enrolled.
+ The serum of these patients was collected during hospitalization and detected for the SARS‐CoV‐2 IgG antibody.
+ Our data showed that the concentration of IgG antibody in mild, general, and recovering patients showed no difference between male and female patients.
+ In severe status, compared with male patients, there were more female patients having a relatively high concentration of serum SARS‐CoV‐2 IgG antibody.
+ In addition, the generation of IgG antibody in female patients was stronger than male patients in disease early phase.
+ Our study identified a discrepancy in the SARS‐CoV‐2 IgG antibody level in male and female patients, which may be a potential cause leading to a different outcome of Coronavirus Disease 2019 between sex.
+</t>
+  </si>
+  <si>
+    <t>[Fanfan%Zeng%NULL%0, Chan%Dai%NULL%2, Chan%Dai%NULL%0, Pengcheng%Cai%NULL%1, Jinbiao%Wang%NULL%1, Lei%Xu%NULL%0, Jianyu%Li%NULL%1, Guoyun%Hu%NULL%1, Zheng%Wang%zhengwang@hust.edu.cn%1, Fang%Zheng%zhengfangtj@hust.edu.cn%0, Lin%Wang%lin_wang@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
   </si>
 </sst>
 </file>
@@ -2270,28 +2490,28 @@
         <v>43952.0</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>156</v>
       </c>
       <c r="J2" t="s">
-        <v>456</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
@@ -2308,7 +2528,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2320,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4">
@@ -2340,7 +2560,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>555</v>
+        <v>604</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2352,10 +2572,10 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5">
@@ -2369,10 +2589,10 @@
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>606</v>
       </c>
       <c r="E5" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2384,10 +2604,10 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6">
@@ -2404,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2416,10 +2636,10 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7">
@@ -2436,7 +2656,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -2448,10 +2668,10 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8">
@@ -2465,10 +2685,10 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>613</v>
       </c>
       <c r="E8" t="s">
-        <v>559</v>
+        <v>614</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -2480,10 +2700,10 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9">
@@ -2500,7 +2720,7 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>560</v>
+        <v>616</v>
       </c>
       <c r="F9" t="s">
         <v>68</v>
@@ -2512,10 +2732,10 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10">
@@ -2532,7 +2752,7 @@
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -2544,10 +2764,10 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11">
@@ -2564,7 +2784,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2576,10 +2796,10 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12">
@@ -2596,7 +2816,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2608,10 +2828,10 @@
         <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13">
@@ -2625,10 +2845,10 @@
         <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>624</v>
       </c>
       <c r="E13" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2640,10 +2860,10 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
@@ -2657,10 +2877,10 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>626</v>
       </c>
       <c r="E14" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2672,10 +2892,10 @@
         <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15">
@@ -2692,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2704,10 +2924,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>420</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16">
@@ -2721,10 +2941,10 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>629</v>
       </c>
       <c r="E16" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -2736,10 +2956,10 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>418</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17">
@@ -2753,10 +2973,10 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -2768,10 +2988,10 @@
         <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>434</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
@@ -2785,10 +3005,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>569</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2800,10 +3020,10 @@
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>434</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
